--- a/動作資料庫/DataGridViewExport.xlsx
+++ b/動作資料庫/DataGridViewExport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <x:si>
     <x:t>left</x:t>
   </x:si>
@@ -22,7 +22,13 @@
     <x:t>position</x:t>
   </x:si>
   <x:si>
+    <x:t>right</x:t>
+  </x:si>
+  <x:si>
     <x:t>Image</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GripRotation</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -373,7 +379,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J13"/>
+  <x:dimension ref="A1:J28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -413,25 +419,25 @@
     </x:row>
     <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="0" t="n">
-        <x:v>1</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E2" s="0" t="n">
-        <x:v>299.45</x:v>
+        <x:v>450</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
-        <x:v>-289.05</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
-        <x:v>158.11</x:v>
+        <x:v>380</x:v>
       </x:c>
       <x:c r="H2" s="0" t="n">
         <x:v>180</x:v>
@@ -448,31 +454,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="D3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>300.37</x:v>
       </x:c>
       <x:c r="F3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-282.3</x:v>
       </x:c>
       <x:c r="G3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>155.09</x:v>
       </x:c>
       <x:c r="H3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I3" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J3" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:10">
@@ -480,31 +486,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E4" s="0" t="n">
-        <x:v>545.61</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F4" s="0" t="n">
-        <x:v>-288.33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G4" s="0" t="n">
-        <x:v>144.08</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H4" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I4" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J4" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
@@ -512,31 +518,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>529.15</x:v>
       </x:c>
       <x:c r="F5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-286.94</x:v>
       </x:c>
       <x:c r="G5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>153.81</x:v>
       </x:c>
       <x:c r="H5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I5" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J5" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10">
@@ -544,31 +550,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
-        <x:v>6</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C6" s="0" t="n">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E6" s="0" t="n">
-        <x:v>530.57</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F6" s="0" t="n">
-        <x:v>-91.71</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G6" s="0" t="n">
-        <x:v>152.33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H6" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I6" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J6" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
@@ -576,31 +582,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="0" t="n">
-        <x:v>7</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>529.87</x:v>
       </x:c>
       <x:c r="F7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-88.61</x:v>
       </x:c>
       <x:c r="G7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>155.65</x:v>
       </x:c>
       <x:c r="H7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I7" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J7" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
@@ -608,31 +614,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="0" t="n">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C8" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E8" s="0" t="n">
-        <x:v>546.15</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F8" s="0" t="n">
-        <x:v>-295.27</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G8" s="0" t="n">
-        <x:v>160.36</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H8" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I8" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J8" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -640,31 +646,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="0" t="n">
-        <x:v>9</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C9" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>532.53</x:v>
       </x:c>
       <x:c r="F9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-289.94</x:v>
       </x:c>
       <x:c r="G9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>155.64</x:v>
       </x:c>
       <x:c r="H9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I9" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J9" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:10">
@@ -672,31 +678,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="0" t="n">
-        <x:v>11</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
       <x:c r="E10" s="0" t="n">
-        <x:v>392.33</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F10" s="0" t="n">
-        <x:v>-320.31</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G10" s="0" t="n">
-        <x:v>157.69</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H10" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I10" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J10" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:10">
@@ -704,31 +710,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="0" t="n">
-        <x:v>12</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="0" t="n">
         <x:v>3</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>395.19</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-317.68</x:v>
       </x:c>
       <x:c r="G11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>160.82</x:v>
       </x:c>
       <x:c r="H11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I11" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J11" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10">
@@ -736,31 +742,31 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>13</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>4</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E12" s="0" t="n">
-        <x:v>550.19</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>-298.09</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="G12" s="0" t="n">
-        <x:v>157.24</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="H12" s="0" t="n">
-        <x:v>180</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I12" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J12" s="0" t="n">
-        <x:v>90</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:10">
@@ -768,31 +774,511 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="0" t="n">
-        <x:v>14</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="0" t="n">
         <x:v>4</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="E13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>531.46</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>-292.76</x:v>
       </x:c>
       <x:c r="G13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>154.58</x:v>
       </x:c>
       <x:c r="H13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="I13" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="J13" s="0" t="n">
-        <x:v>0</x:v>
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J14" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="n">
+        <x:v>539.34</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="n">
+        <x:v>-190.07</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>154.3</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="n">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>181.23</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:10">
+      <x:c r="A18" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>146.32</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>117.09</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>87.95</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="n">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C22" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="n">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I22" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J22" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="n">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C23" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G23" s="0" t="n">
+        <x:v>84.33</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I23" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J23" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="n">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C24" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E24" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G24" s="0" t="n">
+        <x:v>116.29</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I24" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J24" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:10">
+      <x:c r="A25" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="n">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G25" s="0" t="n">
+        <x:v>150.64</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I25" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J25" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:10">
+      <x:c r="A26" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="n">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="n">
+        <x:v>538</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="n">
+        <x:v>178.51</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I26" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J26" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:10">
+      <x:c r="A27" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="n">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="n">
+        <x:v>-291</x:v>
+      </x:c>
+      <x:c r="G27" s="0" t="n">
+        <x:v>170.25</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I27" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J27" s="0" t="n">
+        <x:v>-270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:10">
+      <x:c r="A28" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="n">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="n">
+        <x:v>536.95</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="n">
+        <x:v>-190.51</x:v>
+      </x:c>
+      <x:c r="G28" s="0" t="n">
+        <x:v>153.73</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="n">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="I28" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J28" s="0" t="n">
+        <x:v>-270</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
